--- a/fermentation_insights/TRY_results/spearman_TAL_cornstover.xlsx
+++ b/fermentation_insights/TRY_results/spearman_TAL_cornstover.xlsx
@@ -610,100 +610,100 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5215223740894963</v>
+        <v>-0.4654124536498146</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1176817827271309</v>
+        <v>-0.1932875571502286</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3163822255289021</v>
+        <v>-0.4647271069084276</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3316443665774663</v>
+        <v>0.4123650414601658</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02013598454393817</v>
+        <v>0.0318876795507182</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06588506354025415</v>
+        <v>-0.06818235272941092</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.005674678698714795</v>
+        <v>0.0146936267745071</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01927822111288445</v>
+        <v>0.02268172272689091</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007390205560822243</v>
+        <v>-0.003558542234168937</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.08218871275485103</v>
+        <v>-0.09407567230268921</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.04035174540698163</v>
+        <v>-0.03695851583406334</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.09045453781815127</v>
+        <v>-0.1359832959331837</v>
       </c>
       <c r="O2" t="n">
-        <v>0.216685730742923</v>
+        <v>0.2270926523706095</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01271438685754743</v>
+        <v>-0.003746606986427946</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09451122604490418</v>
+        <v>0.07204099216396866</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1379144396577586</v>
+        <v>-0.1668656594626378</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08581003924015695</v>
+        <v>0.05952158208632834</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01300766803067212</v>
+        <v>0.00811308845235381</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.6814262777051108</v>
+        <v>-0.6684836979347918</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.06681828327313309</v>
+        <v>-0.07785362341449366</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007975999903999616</v>
+        <v>-0.007372349489397957</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4328038112152449</v>
+        <v>0.3748385873543494</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1347334669338677</v>
+        <v>0.1327970431881728</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.3481492325969304</v>
+        <v>-0.4172270769083076</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02831089724358897</v>
+        <v>-0.08634927339709358</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.09957812631250525</v>
+        <v>0.08748620594482379</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.009861159444637779</v>
+        <v>0.02072542690170761</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04361124644498578</v>
+        <v>0.06508202032808132</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.006458425833703335</v>
+        <v>-0.001210468841875368</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.06528947715790863</v>
+        <v>-0.06792823971295885</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01470293881175525</v>
+        <v>0.01548975795903184</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.0250185640742563</v>
+        <v>-0.02966575066300265</v>
       </c>
     </row>
     <row r="3">
@@ -713,103 +713,103 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5215223740894963</v>
+        <v>-0.4654124536498146</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1388975795903184</v>
+        <v>-0.1445168660674643</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1694565178260713</v>
+        <v>0.2620742322969292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1901480565922264</v>
+        <v>0.1749964119856479</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0153314533258133</v>
+        <v>-0.0234313897255589</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1638324313297253</v>
+        <v>-0.1649794439177757</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2916994707978832</v>
+        <v>0.2832150528602114</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.006977595910383641</v>
+        <v>-0.01040951363805455</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.03176979107916432</v>
+        <v>-0.01913326053304213</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002515594062376249</v>
+        <v>0.006965115860463442</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002691658766635067</v>
+        <v>-0.01088317953271813</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.01139802959211837</v>
+        <v>-0.002950091800367202</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.325502262009048</v>
+        <v>-0.3351573086292345</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03919570878283513</v>
+        <v>0.04471937887751551</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3223695774783099</v>
+        <v>0.3354629738518954</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.106184584738339</v>
+        <v>-0.1081049764199057</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.01105886023544094</v>
+        <v>-0.01022020088080352</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.00422123288493154</v>
+        <v>0.004378961515846064</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5708795315181261</v>
+        <v>0.5880355681422725</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.001301189204756819</v>
+        <v>0.0004262417049668199</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.08616994467977872</v>
+        <v>-0.08759631838527354</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.3843628814515258</v>
+        <v>-0.3724452017808071</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.1390525242100968</v>
+        <v>-0.1413225492901972</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.1653352213408854</v>
+        <v>-0.1562407209628839</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.2439963999855999</v>
+        <v>-0.2096079104316417</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01399147996591986</v>
+        <v>0.0098687434749739</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05810221640886563</v>
+        <v>0.04431540926163705</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.04932077328309313</v>
+        <v>-0.06873992295969183</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01300354001416006</v>
+        <v>0.004956019824079296</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02228802515210061</v>
+        <v>0.02240706562826251</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.3667583310333241</v>
+        <v>-0.3702358489433958</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.1589449557798231</v>
+        <v>-0.1697342469369877</v>
       </c>
     </row>
     <row r="4">
@@ -819,103 +819,103 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1176817827271309</v>
+        <v>-0.1932875571502286</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1388975795903184</v>
+        <v>-0.1445168660674643</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02692100368401474</v>
+        <v>0.033562694250777</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1177016548066192</v>
+        <v>-0.1277623030492122</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0448435073740295</v>
+        <v>-0.04655788223152892</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01069713078852315</v>
+        <v>-0.01044570578282313</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07406727226908907</v>
+        <v>-0.07472593090372362</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.03279267517070068</v>
+        <v>-0.0298815595262381</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.09838349753399013</v>
+        <v>-0.09481573926295706</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1032183648734595</v>
+        <v>0.1044145296581186</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1937645830583322</v>
+        <v>0.1883777135108541</v>
       </c>
       <c r="N4" t="n">
-        <v>0.708876435505742</v>
+        <v>0.7066350185400742</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06259906639626558</v>
+        <v>0.06336409345637382</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006391321565286262</v>
+        <v>0.01116417265669063</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05545116580466322</v>
+        <v>0.05697517190068761</v>
       </c>
       <c r="R4" t="n">
-        <v>0.453059316237265</v>
+        <v>0.4551829407317629</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3330463561854247</v>
+        <v>0.3285715862863451</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.02051989007956032</v>
+        <v>-0.01776487105948424</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.0659689678758715</v>
+        <v>-0.05932113328453314</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.03680059520238081</v>
+        <v>-0.0337189828759315</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09460127440509762</v>
+        <v>0.09931642926571706</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.01112385249540998</v>
+        <v>0.006573242292969171</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.04988698354793419</v>
+        <v>-0.05067601070404282</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1255994143976576</v>
+        <v>0.1350391321565286</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0327434269737079</v>
+        <v>0.05924241296965188</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02974850299401198</v>
+        <v>0.03140758163032652</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02280825123300493</v>
+        <v>0.01867927471709887</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.08698220392881571</v>
+        <v>-0.08909517238068952</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.04608632834531338</v>
+        <v>0.0447559550238201</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01006074424297697</v>
+        <v>0.009172548690194762</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.05875098700394801</v>
+        <v>0.06278175512702051</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.006353209412837652</v>
+        <v>0.001792327169308677</v>
       </c>
     </row>
     <row r="5">
@@ -925,103 +925,103 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3163822255289021</v>
+        <v>-0.4647271069084276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1694565178260713</v>
+        <v>0.2620742322969292</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02692100368401474</v>
+        <v>0.033562694250777</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4593297733190933</v>
+        <v>-0.4920840483361933</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04162557450229801</v>
+        <v>0.07481444325777303</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1318028632114528</v>
+        <v>-0.1381125844503378</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1143568094272377</v>
+        <v>0.1595471661886648</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01687206748826995</v>
+        <v>0.006848859395437582</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05541919767679071</v>
+        <v>0.02666276265105061</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0003092172368689475</v>
+        <v>-0.03219113676454706</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.07420532082128328</v>
+        <v>-0.05417714470857883</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00873622694490778</v>
+        <v>-0.01839204156816627</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2171905967623871</v>
+        <v>-0.2279471517886072</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0439558878235513</v>
+        <v>0.008653762615050461</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1733368533474134</v>
+        <v>0.1519687998751995</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1308385393541574</v>
+        <v>-0.1604484177936712</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1123915855663423</v>
+        <v>0.1405433141732567</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01696662786651146</v>
+        <v>-0.002990219960879844</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3814879579518318</v>
+        <v>0.3868244272977092</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05632217728870915</v>
+        <v>0.02311958047832191</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04252634610538442</v>
+        <v>0.05188033552134209</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.02138600554402218</v>
+        <v>-0.06261567446269785</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.05549052596210385</v>
+        <v>-0.07953948615794464</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4403805455221821</v>
+        <v>0.4772423889695559</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5972902931611727</v>
+        <v>0.5720074400297601</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1461027924111696</v>
+        <v>0.1603518414073656</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.02379974319897279</v>
+        <v>0.01144132576530306</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1238036312145249</v>
+        <v>-0.09183396733586935</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.06670135480541922</v>
+        <v>-0.06449228996915987</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02498237192948772</v>
+        <v>0.0216188064752259</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.1220763923055692</v>
+        <v>-0.143810015240061</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02089246756987028</v>
+        <v>0.03881410725642902</v>
       </c>
     </row>
     <row r="6">
@@ -1031,103 +1031,103 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3316443665774663</v>
+        <v>0.4123650414601658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1901480565922264</v>
+        <v>0.1749964119856479</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1177016548066192</v>
+        <v>-0.1277623030492122</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4593297733190933</v>
+        <v>-0.4920840483361933</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02547869391477566</v>
+        <v>-0.02597415189660759</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02900392401569606</v>
+        <v>0.03115366061464246</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06876190704762819</v>
+        <v>0.07042165768663075</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04496849987399949</v>
+        <v>0.04512200448801795</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03189487957951832</v>
+        <v>-0.03351344605378422</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.03743419773679095</v>
+        <v>-0.03838239352957412</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.04867046668186673</v>
+        <v>-0.04839590558362233</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.002676394705578822</v>
+        <v>-0.002676778707114828</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01423436093744375</v>
+        <v>0.01550291001164005</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0160309121236485</v>
+        <v>-0.01825399301597206</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.0241746246984988</v>
+        <v>-0.02707604430417722</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02332473329893319</v>
+        <v>0.02484777939111757</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002127080508322033</v>
+        <v>0.003350797403189613</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03606916827667311</v>
+        <v>0.03735394141576566</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02794830379321517</v>
+        <v>0.0274940299761199</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.06213682454729819</v>
+        <v>-0.06279106716426866</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.07786015144060576</v>
+        <v>-0.07668990675962704</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03102396409585638</v>
+        <v>0.0374810459241837</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.01561839847359389</v>
+        <v>-0.01559910239640959</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.9641005604022416</v>
+        <v>-0.9642329449317797</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.1001668006672027</v>
+        <v>-0.1017374629498518</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.05051924207696831</v>
+        <v>-0.04999421597686391</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2519676958707835</v>
+        <v>0.2516081744326977</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.00499749198996796</v>
+        <v>-0.002114312457249829</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.004560882243528974</v>
+        <v>-0.003836463345853383</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.009968199872799491</v>
+        <v>0.009624518498073992</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.04403662414649659</v>
+        <v>-0.04217949671798688</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.07459825039300157</v>
+        <v>-0.07514545258181032</v>
       </c>
     </row>
     <row r="7">
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02013598454393817</v>
+        <v>0.0318876795507182</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0153314533258133</v>
+        <v>-0.0234313897255589</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0448435073740295</v>
+        <v>-0.04655788223152892</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04162557450229801</v>
+        <v>0.07481444325777303</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02547869391477566</v>
+        <v>-0.02597415189660759</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1243,19 +1243,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06588506354025415</v>
+        <v>-0.06818235272941092</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1638324313297253</v>
+        <v>-0.1649794439177757</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01069713078852315</v>
+        <v>-0.01044570578282313</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1318028632114528</v>
+        <v>-0.1381125844503378</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02900392401569606</v>
+        <v>0.03115366061464246</v>
       </c>
       <c r="G8" t="n">
         <v>-0.05071613886455546</v>
@@ -1349,19 +1349,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005674678698714795</v>
+        <v>0.0146936267745071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2916994707978832</v>
+        <v>0.2832150528602114</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07406727226908907</v>
+        <v>-0.07472593090372362</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1143568094272377</v>
+        <v>0.1595471661886648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06876190704762819</v>
+        <v>0.07042165768663075</v>
       </c>
       <c r="G9" t="n">
         <v>0.04418235272941091</v>
@@ -1455,19 +1455,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01927822111288445</v>
+        <v>0.02268172272689091</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.006977595910383641</v>
+        <v>-0.01040951363805455</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03279267517070068</v>
+        <v>-0.0298815595262381</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01687206748826995</v>
+        <v>0.006848859395437582</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04496849987399949</v>
+        <v>0.04512200448801795</v>
       </c>
       <c r="G10" t="n">
         <v>-0.02482704330817323</v>
@@ -1561,19 +1561,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007390205560822243</v>
+        <v>-0.003558542234168937</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03176979107916432</v>
+        <v>-0.01913326053304213</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09838349753399013</v>
+        <v>-0.09481573926295706</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05541919767679071</v>
+        <v>0.02666276265105061</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03189487957951832</v>
+        <v>-0.03351344605378422</v>
       </c>
       <c r="G11" t="n">
         <v>0.02501510806043224</v>
@@ -1667,19 +1667,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08218871275485103</v>
+        <v>-0.09407567230268921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002515594062376249</v>
+        <v>0.006965115860463442</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1032183648734595</v>
+        <v>0.1044145296581186</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0003092172368689475</v>
+        <v>-0.03219113676454706</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03743419773679095</v>
+        <v>-0.03838239352957412</v>
       </c>
       <c r="G12" t="n">
         <v>-0.01851050604202417</v>
@@ -1773,19 +1773,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04035174540698163</v>
+        <v>-0.03695851583406334</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002691658766635067</v>
+        <v>-0.01088317953271813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1937645830583322</v>
+        <v>0.1883777135108541</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07420532082128328</v>
+        <v>-0.05417714470857883</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04867046668186673</v>
+        <v>-0.04839590558362233</v>
       </c>
       <c r="G13" t="n">
         <v>0.02288879555518222</v>
@@ -1879,19 +1879,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09045453781815127</v>
+        <v>-0.1359832959331837</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01139802959211837</v>
+        <v>-0.002950091800367202</v>
       </c>
       <c r="D14" t="n">
-        <v>0.708876435505742</v>
+        <v>0.7066350185400742</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00873622694490778</v>
+        <v>-0.01839204156816627</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.002676394705578822</v>
+        <v>-0.002676778707114828</v>
       </c>
       <c r="G14" t="n">
         <v>-0.01291502766011064</v>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.216685730742923</v>
+        <v>0.2270926523706095</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.325502262009048</v>
+        <v>-0.3351573086292345</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06259906639626558</v>
+        <v>0.06336409345637382</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2171905967623871</v>
+        <v>-0.2279471517886072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01423436093744375</v>
+        <v>0.01550291001164005</v>
       </c>
       <c r="G15" t="n">
         <v>-0.0327628190512762</v>
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01271438685754743</v>
+        <v>-0.003746606986427946</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03919570878283513</v>
+        <v>0.04471937887751551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006391321565286262</v>
+        <v>0.01116417265669063</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0439558878235513</v>
+        <v>0.008653762615050461</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0160309121236485</v>
+        <v>-0.01825399301597206</v>
       </c>
       <c r="G16" t="n">
         <v>0.003927759711038844</v>
@@ -2197,19 +2197,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09451122604490418</v>
+        <v>0.07204099216396866</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3223695774783099</v>
+        <v>0.3354629738518954</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05545116580466322</v>
+        <v>0.05697517190068761</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1733368533474134</v>
+        <v>0.1519687998751995</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0241746246984988</v>
+        <v>-0.02707604430417722</v>
       </c>
       <c r="G17" t="n">
         <v>0.03163289453157812</v>
@@ -2303,19 +2303,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1379144396577586</v>
+        <v>-0.1668656594626378</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.106184584738339</v>
+        <v>-0.1081049764199057</v>
       </c>
       <c r="D18" t="n">
-        <v>0.453059316237265</v>
+        <v>0.4551829407317629</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1308385393541574</v>
+        <v>-0.1604484177936712</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02332473329893319</v>
+        <v>0.02484777939111757</v>
       </c>
       <c r="G18" t="n">
         <v>-0.1060069840279361</v>
@@ -2409,19 +2409,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08581003924015695</v>
+        <v>0.05952158208632834</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01105886023544094</v>
+        <v>-0.01022020088080352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3330463561854247</v>
+        <v>0.3285715862863451</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1123915855663423</v>
+        <v>0.1405433141732567</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002127080508322033</v>
+        <v>0.003350797403189613</v>
       </c>
       <c r="G19" t="n">
         <v>0.01477177108708435</v>
@@ -2515,19 +2515,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01300766803067212</v>
+        <v>0.00811308845235381</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00422123288493154</v>
+        <v>0.004378961515846064</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02051989007956032</v>
+        <v>-0.01776487105948424</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01696662786651146</v>
+        <v>-0.002990219960879844</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03606916827667311</v>
+        <v>0.03735394141576566</v>
       </c>
       <c r="G20" t="n">
         <v>0.02466288265153061</v>
@@ -2621,19 +2621,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6814262777051108</v>
+        <v>-0.6684836979347918</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5708795315181261</v>
+        <v>0.5880355681422725</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0659689678758715</v>
+        <v>-0.05932113328453314</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3814879579518318</v>
+        <v>0.3868244272977092</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02794830379321517</v>
+        <v>0.0274940299761199</v>
       </c>
       <c r="G21" t="n">
         <v>-0.02981301525206101</v>
@@ -2727,19 +2727,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.06681828327313309</v>
+        <v>-0.07785362341449366</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.001301189204756819</v>
+        <v>0.0004262417049668199</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.03680059520238081</v>
+        <v>-0.0337189828759315</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05632217728870915</v>
+        <v>0.02311958047832191</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06213682454729819</v>
+        <v>-0.06279106716426866</v>
       </c>
       <c r="G22" t="n">
         <v>-0.0780750003000012</v>
@@ -2833,19 +2833,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.007975999903999616</v>
+        <v>-0.007372349489397957</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.08616994467977872</v>
+        <v>-0.08759631838527354</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09460127440509762</v>
+        <v>0.09931642926571706</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04252634610538442</v>
+        <v>0.05188033552134209</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.07786015144060576</v>
+        <v>-0.07668990675962704</v>
       </c>
       <c r="G23" t="n">
         <v>-0.02393068772275089</v>
@@ -2939,19 +2939,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4328038112152449</v>
+        <v>0.3748385873543494</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3843628814515258</v>
+        <v>-0.3724452017808071</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01112385249540998</v>
+        <v>0.006573242292969171</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.02138600554402218</v>
+        <v>-0.06261567446269785</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03102396409585638</v>
+        <v>0.0374810459241837</v>
       </c>
       <c r="G24" t="n">
         <v>-0.06601639206556827</v>
@@ -3045,19 +3045,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1347334669338677</v>
+        <v>0.1327970431881728</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1390525242100968</v>
+        <v>-0.1413225492901972</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.04988698354793419</v>
+        <v>-0.05067601070404282</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.05549052596210385</v>
+        <v>-0.07953948615794464</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01561839847359389</v>
+        <v>-0.01559910239640959</v>
       </c>
       <c r="G25" t="n">
         <v>0.06323017292069168</v>
@@ -3151,19 +3151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.3481492325969304</v>
+        <v>-0.4172270769083076</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1653352213408854</v>
+        <v>-0.1562407209628839</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1255994143976576</v>
+        <v>0.1350391321565286</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4403805455221821</v>
+        <v>0.4772423889695559</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.9641005604022416</v>
+        <v>-0.9642329449317797</v>
       </c>
       <c r="G26" t="n">
         <v>0.02877006708026832</v>
@@ -3257,19 +3257,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02831089724358897</v>
+        <v>-0.08634927339709358</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2439963999855999</v>
+        <v>-0.2096079104316417</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0327434269737079</v>
+        <v>0.05924241296965188</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5972902931611727</v>
+        <v>0.5720074400297601</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1001668006672027</v>
+        <v>-0.1017374629498518</v>
       </c>
       <c r="G27" t="n">
         <v>0.0722748490993964</v>
@@ -3363,19 +3363,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09957812631250525</v>
+        <v>0.08748620594482379</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01399147996591986</v>
+        <v>0.0098687434749739</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02974850299401198</v>
+        <v>0.03140758163032652</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1461027924111696</v>
+        <v>0.1603518414073656</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.05051924207696831</v>
+        <v>-0.04999421597686391</v>
       </c>
       <c r="G28" t="n">
         <v>-0.008108192432769732</v>
@@ -3469,19 +3469,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.009861159444637779</v>
+        <v>0.02072542690170761</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05810221640886563</v>
+        <v>0.04431540926163705</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02280825123300493</v>
+        <v>0.01867927471709887</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02379974319897279</v>
+        <v>0.01144132576530306</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2519676958707835</v>
+        <v>0.2516081744326977</v>
       </c>
       <c r="G29" t="n">
         <v>0.02178507914031656</v>
@@ -3575,19 +3575,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04361124644498578</v>
+        <v>0.06508202032808132</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.04932077328309313</v>
+        <v>-0.06873992295969183</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.08698220392881571</v>
+        <v>-0.08909517238068952</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.1238036312145249</v>
+        <v>-0.09183396733586935</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00499749198996796</v>
+        <v>-0.002114312457249829</v>
       </c>
       <c r="G30" t="n">
         <v>0.003375085500342001</v>
@@ -3681,19 +3681,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.006458425833703335</v>
+        <v>-0.001210468841875368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01300354001416006</v>
+        <v>0.004956019824079296</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04608632834531338</v>
+        <v>0.0447559550238201</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.06670135480541922</v>
+        <v>-0.06449228996915987</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.004560882243528974</v>
+        <v>-0.003836463345853383</v>
       </c>
       <c r="G31" t="n">
         <v>0.05087924351697407</v>
@@ -3787,19 +3787,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.06528947715790863</v>
+        <v>-0.06792823971295885</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02228802515210061</v>
+        <v>0.02240706562826251</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01006074424297697</v>
+        <v>0.009172548690194762</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02498237192948772</v>
+        <v>0.0216188064752259</v>
       </c>
       <c r="F32" t="n">
-        <v>0.009968199872799491</v>
+        <v>0.009624518498073992</v>
       </c>
       <c r="G32" t="n">
         <v>0.04755235020940084</v>
@@ -3893,19 +3893,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01470293881175525</v>
+        <v>0.01548975795903184</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3667583310333241</v>
+        <v>-0.3702358489433958</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05875098700394801</v>
+        <v>0.06278175512702051</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.1220763923055692</v>
+        <v>-0.143810015240061</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.04403662414649659</v>
+        <v>-0.04217949671798688</v>
       </c>
       <c r="G33" t="n">
         <v>0.08035424141696566</v>
@@ -3999,19 +3999,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0250185640742563</v>
+        <v>-0.02966575066300265</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1589449557798231</v>
+        <v>-0.1697342469369877</v>
       </c>
       <c r="D34" t="n">
-        <v>0.006353209412837652</v>
+        <v>0.001792327169308677</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02089246756987028</v>
+        <v>0.03881410725642902</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.07459825039300157</v>
+        <v>-0.07514545258181032</v>
       </c>
       <c r="G34" t="n">
         <v>0.04177399109596439</v>

--- a/fermentation_insights/TRY_results/spearman_TAL_cornstover.xlsx
+++ b/fermentation_insights/TRY_results/spearman_TAL_cornstover.xlsx
@@ -585,100 +585,100 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.7525807285807286</v>
+        <v>-0.6637052797052797</v>
       </c>
       <c r="D2">
-        <v>-0.6852726372726373</v>
+        <v>-0.2051538851538852</v>
       </c>
       <c r="E2">
-        <v>0.8073126393126393</v>
+        <v>0.002218298218298218</v>
       </c>
       <c r="F2">
-        <v>0.4543497223497224</v>
+        <v>0.247044691044691</v>
       </c>
       <c r="G2">
-        <v>-0.009665433665433666</v>
+        <v>-0.01327138927138927</v>
       </c>
       <c r="H2">
-        <v>0.0203002163002163</v>
+        <v>-0.1112889872889873</v>
       </c>
       <c r="I2">
-        <v>-0.05523670323670324</v>
+        <v>-0.02511735711735712</v>
       </c>
       <c r="J2">
-        <v>0.01983850383850384</v>
+        <v>0.01034452634452634</v>
       </c>
       <c r="K2">
-        <v>-0.03738618138618138</v>
+        <v>-0.06897074097074098</v>
       </c>
       <c r="L2">
-        <v>0.042999426999427</v>
+        <v>0.0264008304008304</v>
       </c>
       <c r="M2">
-        <v>-0.05980921180921181</v>
+        <v>-0.05526857526857527</v>
       </c>
       <c r="N2">
-        <v>-0.06128342528342529</v>
+        <v>0.006964938964938965</v>
       </c>
       <c r="O2">
-        <v>0.133041289041289</v>
+        <v>0.2199348399348399</v>
       </c>
       <c r="P2">
-        <v>0.0423957543957544</v>
+        <v>0.03936963936963937</v>
       </c>
       <c r="Q2">
-        <v>-0.1203595083595084</v>
+        <v>0.05265590865590866</v>
       </c>
       <c r="R2">
-        <v>-0.1858268698268698</v>
+        <v>-0.09892975492975493</v>
       </c>
       <c r="S2">
-        <v>0.04484439284439284</v>
+        <v>0.09594949194949196</v>
       </c>
       <c r="T2">
-        <v>-0.08572690972690973</v>
+        <v>-0.0274988554988555</v>
       </c>
       <c r="U2">
-        <v>-0.4366297606297606</v>
+        <v>-0.7868499428499428</v>
       </c>
       <c r="V2">
-        <v>-0.1442766722766723</v>
+        <v>-0.05171833571833572</v>
       </c>
       <c r="W2">
-        <v>0.02371251571251571</v>
+        <v>0.01579122379122379</v>
       </c>
       <c r="X2">
-        <v>0.2075421395421395</v>
+        <v>0.2893590253590254</v>
       </c>
       <c r="Y2">
-        <v>0.2283730443730444</v>
+        <v>0.2156214836214836</v>
       </c>
       <c r="Z2">
-        <v>-0.415016467016467</v>
+        <v>-0.2264881664881665</v>
       </c>
       <c r="AA2">
-        <v>-0.3698098178098178</v>
+        <v>-0.08012204012204012</v>
       </c>
       <c r="AB2">
-        <v>-0.1286638766638767</v>
+        <v>-0.04190813390813391</v>
       </c>
       <c r="AC2">
-        <v>0.03948517548517549</v>
+        <v>0.07630436830436831</v>
       </c>
       <c r="AD2">
-        <v>0.03394512994512994</v>
+        <v>0.03258330858330858</v>
       </c>
       <c r="AE2">
-        <v>0.006070866070866071</v>
+        <v>0.02546967746967747</v>
       </c>
       <c r="AF2">
-        <v>-0.06998916998916999</v>
+        <v>-0.04681631881631881</v>
       </c>
       <c r="AG2">
-        <v>0.0901010941010941</v>
+        <v>-0.01630999630999631</v>
       </c>
       <c r="AH2">
-        <v>0.07122821922821923</v>
+        <v>0.06279007479007478</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -686,103 +686,103 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.7525807285807286</v>
+        <v>-0.6637052797052797</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3948809268809269</v>
+        <v>0.008744816744816745</v>
       </c>
       <c r="E3">
-        <v>-0.7448599688599689</v>
+        <v>-0.08593132993132993</v>
       </c>
       <c r="F3">
-        <v>-0.09252454452454452</v>
+        <v>0.06689815889815889</v>
       </c>
       <c r="G3">
-        <v>-0.02899134499134499</v>
+        <v>-0.02367710367710368</v>
       </c>
       <c r="H3">
-        <v>-0.1101744501744502</v>
+        <v>-0.07879194679194679</v>
       </c>
       <c r="I3">
-        <v>0.2097203457203457</v>
+        <v>0.267972207972208</v>
       </c>
       <c r="J3">
-        <v>-0.03613508413508414</v>
+        <v>-0.03525419925419925</v>
       </c>
       <c r="K3">
-        <v>-0.01219456819456819</v>
+        <v>-0.01035141435141435</v>
       </c>
       <c r="L3">
-        <v>-0.03769038169038169</v>
+        <v>-0.001191253191253191</v>
       </c>
       <c r="M3">
-        <v>0.02056988056988057</v>
+        <v>0.008504624504624504</v>
       </c>
       <c r="N3">
-        <v>-0.06124273324273324</v>
+        <v>-0.06194616194616195</v>
       </c>
       <c r="O3">
-        <v>-0.2020890700890701</v>
+        <v>-0.2175927255927256</v>
       </c>
       <c r="P3">
-        <v>-0.00633981033981034</v>
+        <v>0.01181841581841582</v>
       </c>
       <c r="Q3">
-        <v>0.3162349482349482</v>
+        <v>0.3197292677292677</v>
       </c>
       <c r="R3">
-        <v>0.01920648720648721</v>
+        <v>-0.02019413619413619</v>
       </c>
       <c r="S3">
-        <v>-0.08526727326727326</v>
+        <v>-0.09501769101769102</v>
       </c>
       <c r="T3">
-        <v>0.0116036996036996</v>
+        <v>-0.04250691050691051</v>
       </c>
       <c r="U3">
-        <v>0.4642739122739123</v>
+        <v>0.5843670083670084</v>
       </c>
       <c r="V3">
-        <v>0.1132504612504612</v>
+        <v>0.06081357681357681</v>
       </c>
       <c r="W3">
-        <v>-0.02702420702420702</v>
+        <v>-0.02168910968910969</v>
       </c>
       <c r="X3">
-        <v>-0.3930649170649171</v>
+        <v>-0.4128073608073608</v>
       </c>
       <c r="Y3">
-        <v>-0.1654688734688735</v>
+        <v>-0.03306275706275706</v>
       </c>
       <c r="Z3">
-        <v>0.07672826872826873</v>
+        <v>-0.0765941325941326</v>
       </c>
       <c r="AA3">
-        <v>0.09463601863601864</v>
+        <v>-0.08467261267261267</v>
       </c>
       <c r="AB3">
-        <v>0.1117566757566758</v>
+        <v>0.02171775371775372</v>
       </c>
       <c r="AC3">
-        <v>-0.02370718770718771</v>
+        <v>-0.03332920532920533</v>
       </c>
       <c r="AD3">
-        <v>-0.01853086253086253</v>
+        <v>-0.01304218904218904</v>
       </c>
       <c r="AE3">
-        <v>0.02494862494862495</v>
+        <v>0.01122525522525523</v>
       </c>
       <c r="AF3">
-        <v>0.04598552198552198</v>
+        <v>0.01761233361233361</v>
       </c>
       <c r="AG3">
-        <v>-0.2566483006483006</v>
+        <v>-0.2961756321756322</v>
       </c>
       <c r="AH3">
-        <v>-0.2001986241986242</v>
+        <v>-0.2425781785781786</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -790,103 +790,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6852726372726373</v>
+        <v>-0.2051538851538852</v>
       </c>
       <c r="C4">
-        <v>0.3948809268809269</v>
+        <v>0.008744816744816745</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.5332000252000252</v>
+        <v>0.09543643143643143</v>
       </c>
       <c r="F4">
-        <v>-0.308047628047628</v>
+        <v>-0.1962893202893203</v>
       </c>
       <c r="G4">
-        <v>0.01236014436014436</v>
+        <v>0.01415171015171015</v>
       </c>
       <c r="H4">
-        <v>-0.04687161487161487</v>
+        <v>-0.02629485829485829</v>
       </c>
       <c r="I4">
-        <v>-0.009895341895341895</v>
+        <v>-0.05064895464895465</v>
       </c>
       <c r="J4">
-        <v>0.02770919170919171</v>
+        <v>0.05598964398964399</v>
       </c>
       <c r="K4">
-        <v>0.0311984111984112</v>
+        <v>0.03003274203274203</v>
       </c>
       <c r="L4">
-        <v>0.00634936234936235</v>
+        <v>0.0296966576966577</v>
       </c>
       <c r="M4">
-        <v>0.1605719685719686</v>
+        <v>0.1728076848076848</v>
       </c>
       <c r="N4">
-        <v>0.4911147231147231</v>
+        <v>0.6362864642864643</v>
       </c>
       <c r="O4">
-        <v>-0.0591968871968872</v>
+        <v>-0.03505442305442306</v>
       </c>
       <c r="P4">
-        <v>-0.02886042486042486</v>
+        <v>-0.007721287721287722</v>
       </c>
       <c r="Q4">
-        <v>0.09402950202950203</v>
+        <v>0.01433216633216633</v>
       </c>
       <c r="R4">
-        <v>0.3805724245724246</v>
+        <v>0.4035806355806356</v>
       </c>
       <c r="S4">
-        <v>0.3145309945309945</v>
+        <v>0.4563754563754564</v>
       </c>
       <c r="T4">
-        <v>0.05244355644355644</v>
+        <v>0.007492771492771493</v>
       </c>
       <c r="U4">
-        <v>0.1388293988293988</v>
+        <v>0.09478433878433878</v>
       </c>
       <c r="V4">
-        <v>0.1086476286476286</v>
+        <v>0.04555931755931756</v>
       </c>
       <c r="W4">
-        <v>-0.006221094221094221</v>
+        <v>0.0002862962862962863</v>
       </c>
       <c r="X4">
-        <v>-0.1113638073638074</v>
+        <v>-0.06903096903096903</v>
       </c>
       <c r="Y4">
-        <v>-0.1640884640884641</v>
+        <v>-0.07257229257229257</v>
       </c>
       <c r="Z4">
-        <v>0.2876445836445836</v>
+        <v>0.1948094668094668</v>
       </c>
       <c r="AA4">
-        <v>0.2457436737436738</v>
+        <v>0.1183311103311103</v>
       </c>
       <c r="AB4">
-        <v>0.1618093138093138</v>
+        <v>0.1385033825033825</v>
       </c>
       <c r="AC4">
-        <v>-0.008839844839844839</v>
+        <v>-0.009076209076209076</v>
       </c>
       <c r="AD4">
-        <v>-0.02831116031116031</v>
+        <v>-0.02352761952761953</v>
       </c>
       <c r="AE4">
-        <v>-0.01068140268140268</v>
+        <v>-0.01069142269142269</v>
       </c>
       <c r="AF4">
-        <v>0.0699043539043539</v>
+        <v>0.04996888996888997</v>
       </c>
       <c r="AG4">
-        <v>-0.07418948618948619</v>
+        <v>-0.02952452952452952</v>
       </c>
       <c r="AH4">
-        <v>-0.01805429405429405</v>
+        <v>0.02052987252987253</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -894,103 +894,103 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8073126393126393</v>
+        <v>0.002218298218298218</v>
       </c>
       <c r="C5">
-        <v>-0.7448599688599689</v>
+        <v>-0.08593132993132993</v>
       </c>
       <c r="D5">
-        <v>-0.5332000252000252</v>
+        <v>0.09543643143643143</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2986332106332106</v>
+        <v>-0.4155563235563235</v>
       </c>
       <c r="G5">
-        <v>0.002716646716646716</v>
+        <v>0.06411198411198411</v>
       </c>
       <c r="H5">
-        <v>0.1308446988446988</v>
+        <v>-0.02741673941673942</v>
       </c>
       <c r="I5">
-        <v>-0.06450703650703651</v>
+        <v>0.04272379872379872</v>
       </c>
       <c r="J5">
-        <v>0.01347426147426148</v>
+        <v>-0.01979173979173979</v>
       </c>
       <c r="K5">
-        <v>0.02354756354756355</v>
+        <v>0.04557842157842158</v>
       </c>
       <c r="L5">
-        <v>0.04803384003384004</v>
+        <v>0.01848077448077448</v>
       </c>
       <c r="M5">
-        <v>-0.0167989247989248</v>
+        <v>0.02928362928362929</v>
       </c>
       <c r="N5">
-        <v>0.04521760521760522</v>
+        <v>0.08548111348111348</v>
       </c>
       <c r="O5">
-        <v>0.06323745923745924</v>
+        <v>0.04373823173823174</v>
       </c>
       <c r="P5">
-        <v>0.01855451455451455</v>
+        <v>0.007639255639255639</v>
       </c>
       <c r="Q5">
-        <v>-0.2636450996450996</v>
+        <v>0.03478841878841879</v>
       </c>
       <c r="R5">
-        <v>-0.07528218328218328</v>
+        <v>-0.05348317748317748</v>
       </c>
       <c r="S5">
-        <v>0.09824076224076224</v>
+        <v>0.1845404205404206</v>
       </c>
       <c r="T5">
-        <v>-0.07304329304329304</v>
+        <v>0.01764989364989365</v>
       </c>
       <c r="U5">
-        <v>-0.1226639186639187</v>
+        <v>0.1931319251319251</v>
       </c>
       <c r="V5">
-        <v>-0.1090600810600811</v>
+        <v>-0.146997494997495</v>
       </c>
       <c r="W5">
-        <v>0.0066993426993427</v>
+        <v>-0.02036049236049236</v>
       </c>
       <c r="X5">
-        <v>0.1902816222816223</v>
+        <v>0.2326101406101406</v>
       </c>
       <c r="Y5">
-        <v>0.2593352473352473</v>
+        <v>0.426014838014838</v>
       </c>
       <c r="Z5">
-        <v>-0.2671712071712072</v>
+        <v>0.4006917766917767</v>
       </c>
       <c r="AA5">
-        <v>-0.3085790845790846</v>
+        <v>0.4523692403692404</v>
       </c>
       <c r="AB5">
-        <v>-0.2347151107151107</v>
+        <v>0.04900935700935701</v>
       </c>
       <c r="AC5">
-        <v>0.01257843657843658</v>
+        <v>-0.02459029259029259</v>
       </c>
       <c r="AD5">
-        <v>0.02368961968961969</v>
+        <v>0.01866564666564667</v>
       </c>
       <c r="AE5">
-        <v>-0.03902570702570703</v>
+        <v>0.01916161916161916</v>
       </c>
       <c r="AF5">
-        <v>-0.07285498885498885</v>
+        <v>0.01788228588228588</v>
       </c>
       <c r="AG5">
-        <v>0.1331017571017571</v>
+        <v>-0.1278009318009318</v>
       </c>
       <c r="AH5">
-        <v>0.104979140979141</v>
+        <v>0.05181077181077181</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -998,103 +998,103 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4543497223497224</v>
+        <v>0.247044691044691</v>
       </c>
       <c r="C6">
-        <v>-0.09252454452454452</v>
+        <v>0.06689815889815889</v>
       </c>
       <c r="D6">
-        <v>-0.308047628047628</v>
+        <v>-0.1962893202893203</v>
       </c>
       <c r="E6">
-        <v>0.2986332106332106</v>
+        <v>-0.4155563235563235</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.07104224304224305</v>
+        <v>-0.07213394413394414</v>
       </c>
       <c r="H6">
-        <v>-0.03525193125193125</v>
+        <v>-0.03385874185874186</v>
       </c>
       <c r="I6">
-        <v>-5.63040563040563E-05</v>
+        <v>-0.002863538863538863</v>
       </c>
       <c r="J6">
-        <v>-0.02604612204612205</v>
+        <v>-0.02653729453729454</v>
       </c>
       <c r="K6">
-        <v>-0.002265470265470265</v>
+        <v>-0.000842016842016842</v>
       </c>
       <c r="L6">
-        <v>0.01660874860874861</v>
+        <v>0.01314001314001314</v>
       </c>
       <c r="M6">
-        <v>-0.01663823263823264</v>
+        <v>-0.01348875748875749</v>
       </c>
       <c r="N6">
-        <v>0.005763509763509763</v>
+        <v>0.00582002982002982</v>
       </c>
       <c r="O6">
-        <v>-0.02946601746601746</v>
+        <v>-0.02175357375357375</v>
       </c>
       <c r="P6">
-        <v>0.03446065046065046</v>
+        <v>0.03127054327054327</v>
       </c>
       <c r="Q6">
-        <v>-0.03112485112485112</v>
+        <v>-0.03287796887796888</v>
       </c>
       <c r="R6">
-        <v>-0.06427854427854428</v>
+        <v>-0.06252533052533052</v>
       </c>
       <c r="S6">
-        <v>-0.02077580077580077</v>
+        <v>-0.0200976560976561</v>
       </c>
       <c r="T6">
-        <v>-0.06073411273411274</v>
+        <v>-0.05785127785127785</v>
       </c>
       <c r="U6">
-        <v>-0.008939036939036939</v>
+        <v>-0.007982611982611982</v>
       </c>
       <c r="V6">
-        <v>0.008598980598980599</v>
+        <v>0.007889455889455889</v>
       </c>
       <c r="W6">
-        <v>0.01201188001188001</v>
+        <v>0.01248518448518448</v>
       </c>
       <c r="X6">
-        <v>0.02547484947484948</v>
+        <v>0.02316659916659917</v>
       </c>
       <c r="Y6">
-        <v>-0.0223948423948424</v>
+        <v>-0.02053652053652054</v>
       </c>
       <c r="Z6">
-        <v>-0.9636835236835237</v>
+        <v>-0.9640710760710761</v>
       </c>
       <c r="AA6">
-        <v>-0.1174775134775135</v>
+        <v>-0.06037092037092037</v>
       </c>
       <c r="AB6">
-        <v>0.008738948738948739</v>
+        <v>0.01131797931797932</v>
       </c>
       <c r="AC6">
-        <v>0.2351747111747112</v>
+        <v>0.2552222912222912</v>
       </c>
       <c r="AD6">
-        <v>0.01356504156504157</v>
+        <v>0.0131994131994132</v>
       </c>
       <c r="AE6">
-        <v>-0.001415989415989416</v>
+        <v>-0.0001058761058761059</v>
       </c>
       <c r="AF6">
-        <v>-0.04010585210585211</v>
+        <v>-0.03618076818076818</v>
       </c>
       <c r="AG6">
-        <v>0.01204448404448404</v>
+        <v>0.009224577224577224</v>
       </c>
       <c r="AH6">
-        <v>-0.02907510507510508</v>
+        <v>-0.02673458673458673</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1102,19 +1102,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.009665433665433666</v>
+        <v>-0.01327138927138927</v>
       </c>
       <c r="C7">
-        <v>-0.02899134499134499</v>
+        <v>-0.02367710367710368</v>
       </c>
       <c r="D7">
-        <v>0.01236014436014436</v>
+        <v>0.01415171015171015</v>
       </c>
       <c r="E7">
-        <v>0.002716646716646716</v>
+        <v>0.06411198411198411</v>
       </c>
       <c r="F7">
-        <v>-0.07104224304224305</v>
+        <v>-0.07213394413394414</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1206,19 +1206,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0203002163002163</v>
+        <v>-0.1112889872889873</v>
       </c>
       <c r="C8">
-        <v>-0.1101744501744502</v>
+        <v>-0.07879194679194679</v>
       </c>
       <c r="D8">
-        <v>-0.04687161487161487</v>
+        <v>-0.02629485829485829</v>
       </c>
       <c r="E8">
-        <v>0.1308446988446988</v>
+        <v>-0.02741673941673942</v>
       </c>
       <c r="F8">
-        <v>-0.03525193125193125</v>
+        <v>-0.03385874185874186</v>
       </c>
       <c r="G8">
         <v>0.007067527067527068</v>
@@ -1310,19 +1310,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.05523670323670324</v>
+        <v>-0.02511735711735712</v>
       </c>
       <c r="C9">
-        <v>0.2097203457203457</v>
+        <v>0.267972207972208</v>
       </c>
       <c r="D9">
-        <v>-0.009895341895341895</v>
+        <v>-0.05064895464895465</v>
       </c>
       <c r="E9">
-        <v>-0.06450703650703651</v>
+        <v>0.04272379872379872</v>
       </c>
       <c r="F9">
-        <v>-5.63040563040563E-05</v>
+        <v>-0.002863538863538863</v>
       </c>
       <c r="G9">
         <v>0.0009671049671049671</v>
@@ -1414,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01983850383850384</v>
+        <v>0.01034452634452634</v>
       </c>
       <c r="C10">
-        <v>-0.03613508413508414</v>
+        <v>-0.03525419925419925</v>
       </c>
       <c r="D10">
-        <v>0.02770919170919171</v>
+        <v>0.05598964398964399</v>
       </c>
       <c r="E10">
-        <v>0.01347426147426148</v>
+        <v>-0.01979173979173979</v>
       </c>
       <c r="F10">
-        <v>-0.02604612204612205</v>
+        <v>-0.02653729453729454</v>
       </c>
       <c r="G10">
         <v>0.00234015834015834</v>
@@ -1518,19 +1518,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.03738618138618138</v>
+        <v>-0.06897074097074098</v>
       </c>
       <c r="C11">
-        <v>-0.01219456819456819</v>
+        <v>-0.01035141435141435</v>
       </c>
       <c r="D11">
-        <v>0.0311984111984112</v>
+        <v>0.03003274203274203</v>
       </c>
       <c r="E11">
-        <v>0.02354756354756355</v>
+        <v>0.04557842157842158</v>
       </c>
       <c r="F11">
-        <v>-0.002265470265470265</v>
+        <v>-0.000842016842016842</v>
       </c>
       <c r="G11">
         <v>0.01380907380907381</v>
@@ -1622,19 +1622,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.042999426999427</v>
+        <v>0.0264008304008304</v>
       </c>
       <c r="C12">
-        <v>-0.03769038169038169</v>
+        <v>-0.001191253191253191</v>
       </c>
       <c r="D12">
-        <v>0.00634936234936235</v>
+        <v>0.0296966576966577</v>
       </c>
       <c r="E12">
-        <v>0.04803384003384004</v>
+        <v>0.01848077448077448</v>
       </c>
       <c r="F12">
-        <v>0.01660874860874861</v>
+        <v>0.01314001314001314</v>
       </c>
       <c r="G12">
         <v>0.04491608091608092</v>
@@ -1726,19 +1726,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.05980921180921181</v>
+        <v>-0.05526857526857527</v>
       </c>
       <c r="C13">
-        <v>0.02056988056988057</v>
+        <v>0.008504624504624504</v>
       </c>
       <c r="D13">
-        <v>0.1605719685719686</v>
+        <v>0.1728076848076848</v>
       </c>
       <c r="E13">
-        <v>-0.0167989247989248</v>
+        <v>0.02928362928362929</v>
       </c>
       <c r="F13">
-        <v>-0.01663823263823264</v>
+        <v>-0.01348875748875749</v>
       </c>
       <c r="G13">
         <v>-0.04308007908007908</v>
@@ -1830,19 +1830,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.06128342528342529</v>
+        <v>0.006964938964938965</v>
       </c>
       <c r="C14">
-        <v>-0.06124273324273324</v>
+        <v>-0.06194616194616195</v>
       </c>
       <c r="D14">
-        <v>0.4911147231147231</v>
+        <v>0.6362864642864643</v>
       </c>
       <c r="E14">
-        <v>0.04521760521760522</v>
+        <v>0.08548111348111348</v>
       </c>
       <c r="F14">
-        <v>0.005763509763509763</v>
+        <v>0.00582002982002982</v>
       </c>
       <c r="G14">
         <v>0.01511738711738712</v>
@@ -1934,19 +1934,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.133041289041289</v>
+        <v>0.2199348399348399</v>
       </c>
       <c r="C15">
-        <v>-0.2020890700890701</v>
+        <v>-0.2175927255927256</v>
       </c>
       <c r="D15">
-        <v>-0.0591968871968872</v>
+        <v>-0.03505442305442306</v>
       </c>
       <c r="E15">
-        <v>0.06323745923745924</v>
+        <v>0.04373823173823174</v>
       </c>
       <c r="F15">
-        <v>-0.02946601746601746</v>
+        <v>-0.02175357375357375</v>
       </c>
       <c r="G15">
         <v>-0.01886572286572287</v>
@@ -2038,19 +2038,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0423957543957544</v>
+        <v>0.03936963936963937</v>
       </c>
       <c r="C16">
-        <v>-0.00633981033981034</v>
+        <v>0.01181841581841582</v>
       </c>
       <c r="D16">
-        <v>-0.02886042486042486</v>
+        <v>-0.007721287721287722</v>
       </c>
       <c r="E16">
-        <v>0.01855451455451455</v>
+        <v>0.007639255639255639</v>
       </c>
       <c r="F16">
-        <v>0.03446065046065046</v>
+        <v>0.03127054327054327</v>
       </c>
       <c r="G16">
         <v>0.01828563028563028</v>
@@ -2142,19 +2142,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1203595083595084</v>
+        <v>0.05265590865590866</v>
       </c>
       <c r="C17">
-        <v>0.3162349482349482</v>
+        <v>0.3197292677292677</v>
       </c>
       <c r="D17">
-        <v>0.09402950202950203</v>
+        <v>0.01433216633216633</v>
       </c>
       <c r="E17">
-        <v>-0.2636450996450996</v>
+        <v>0.03478841878841879</v>
       </c>
       <c r="F17">
-        <v>-0.03112485112485112</v>
+        <v>-0.03287796887796888</v>
       </c>
       <c r="G17">
         <v>-0.0411973371973372</v>
@@ -2246,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1858268698268698</v>
+        <v>-0.09892975492975493</v>
       </c>
       <c r="C18">
-        <v>0.01920648720648721</v>
+        <v>-0.02019413619413619</v>
       </c>
       <c r="D18">
-        <v>0.3805724245724246</v>
+        <v>0.4035806355806356</v>
       </c>
       <c r="E18">
-        <v>-0.07528218328218328</v>
+        <v>-0.05348317748317748</v>
       </c>
       <c r="F18">
-        <v>-0.06427854427854428</v>
+        <v>-0.06252533052533052</v>
       </c>
       <c r="G18">
         <v>0.01486673086673087</v>
@@ -2350,19 +2350,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.04484439284439284</v>
+        <v>0.09594949194949196</v>
       </c>
       <c r="C19">
-        <v>-0.08526727326727326</v>
+        <v>-0.09501769101769102</v>
       </c>
       <c r="D19">
-        <v>0.3145309945309945</v>
+        <v>0.4563754563754564</v>
       </c>
       <c r="E19">
-        <v>0.09824076224076224</v>
+        <v>0.1845404205404206</v>
       </c>
       <c r="F19">
-        <v>-0.02077580077580077</v>
+        <v>-0.0200976560976561</v>
       </c>
       <c r="G19">
         <v>0.02354589554589554</v>
@@ -2454,19 +2454,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.08572690972690973</v>
+        <v>-0.0274988554988555</v>
       </c>
       <c r="C20">
-        <v>0.0116036996036996</v>
+        <v>-0.04250691050691051</v>
       </c>
       <c r="D20">
-        <v>0.05244355644355644</v>
+        <v>0.007492771492771493</v>
       </c>
       <c r="E20">
-        <v>-0.07304329304329304</v>
+        <v>0.01764989364989365</v>
       </c>
       <c r="F20">
-        <v>-0.06073411273411274</v>
+        <v>-0.05785127785127785</v>
       </c>
       <c r="G20">
         <v>0.06232009432009432</v>
@@ -2558,19 +2558,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.4366297606297606</v>
+        <v>-0.7868499428499428</v>
       </c>
       <c r="C21">
-        <v>0.4642739122739123</v>
+        <v>0.5843670083670084</v>
       </c>
       <c r="D21">
-        <v>0.1388293988293988</v>
+        <v>0.09478433878433878</v>
       </c>
       <c r="E21">
-        <v>-0.1226639186639187</v>
+        <v>0.1931319251319251</v>
       </c>
       <c r="F21">
-        <v>-0.008939036939036939</v>
+        <v>-0.007982611982611982</v>
       </c>
       <c r="G21">
         <v>0.006152334152334152</v>
@@ -2662,19 +2662,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.1442766722766723</v>
+        <v>-0.05171833571833572</v>
       </c>
       <c r="C22">
-        <v>0.1132504612504612</v>
+        <v>0.06081357681357681</v>
       </c>
       <c r="D22">
-        <v>0.1086476286476286</v>
+        <v>0.04555931755931756</v>
       </c>
       <c r="E22">
-        <v>-0.1090600810600811</v>
+        <v>-0.146997494997495</v>
       </c>
       <c r="F22">
-        <v>0.008598980598980599</v>
+        <v>0.007889455889455889</v>
       </c>
       <c r="G22">
         <v>-0.0837004677004677</v>
@@ -2766,19 +2766,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.02371251571251571</v>
+        <v>0.01579122379122379</v>
       </c>
       <c r="C23">
-        <v>-0.02702420702420702</v>
+        <v>-0.02168910968910969</v>
       </c>
       <c r="D23">
-        <v>-0.006221094221094221</v>
+        <v>0.0002862962862962863</v>
       </c>
       <c r="E23">
-        <v>0.0066993426993427</v>
+        <v>-0.02036049236049236</v>
       </c>
       <c r="F23">
-        <v>0.01201188001188001</v>
+        <v>0.01248518448518448</v>
       </c>
       <c r="G23">
         <v>0.01762546162546163</v>
@@ -2870,19 +2870,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2075421395421395</v>
+        <v>0.2893590253590254</v>
       </c>
       <c r="C24">
-        <v>-0.3930649170649171</v>
+        <v>-0.4128073608073608</v>
       </c>
       <c r="D24">
-        <v>-0.1113638073638074</v>
+        <v>-0.06903096903096903</v>
       </c>
       <c r="E24">
-        <v>0.1902816222816223</v>
+        <v>0.2326101406101406</v>
       </c>
       <c r="F24">
-        <v>0.02547484947484948</v>
+        <v>0.02316659916659917</v>
       </c>
       <c r="G24">
         <v>-0.008087024087024088</v>
@@ -2974,19 +2974,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2283730443730444</v>
+        <v>0.2156214836214836</v>
       </c>
       <c r="C25">
-        <v>-0.1654688734688735</v>
+        <v>-0.03306275706275706</v>
       </c>
       <c r="D25">
-        <v>-0.1640884640884641</v>
+        <v>-0.07257229257229257</v>
       </c>
       <c r="E25">
-        <v>0.2593352473352473</v>
+        <v>0.426014838014838</v>
       </c>
       <c r="F25">
-        <v>-0.0223948423948424</v>
+        <v>-0.02053652053652054</v>
       </c>
       <c r="G25">
         <v>0.04504647304647304</v>
@@ -3078,19 +3078,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.415016467016467</v>
+        <v>-0.2264881664881665</v>
       </c>
       <c r="C26">
-        <v>0.07672826872826873</v>
+        <v>-0.0765941325941326</v>
       </c>
       <c r="D26">
-        <v>0.2876445836445836</v>
+        <v>0.1948094668094668</v>
       </c>
       <c r="E26">
-        <v>-0.2671712071712072</v>
+        <v>0.4006917766917767</v>
       </c>
       <c r="F26">
-        <v>-0.9636835236835237</v>
+        <v>-0.9640710760710761</v>
       </c>
       <c r="G26">
         <v>0.06554629754629755</v>
@@ -3182,19 +3182,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3698098178098178</v>
+        <v>-0.08012204012204012</v>
       </c>
       <c r="C27">
-        <v>0.09463601863601864</v>
+        <v>-0.08467261267261267</v>
       </c>
       <c r="D27">
-        <v>0.2457436737436738</v>
+        <v>0.1183311103311103</v>
       </c>
       <c r="E27">
-        <v>-0.3085790845790846</v>
+        <v>0.4523692403692404</v>
       </c>
       <c r="F27">
-        <v>-0.1174775134775135</v>
+        <v>-0.06037092037092037</v>
       </c>
       <c r="G27">
         <v>-0.004333744333744334</v>
@@ -3286,19 +3286,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.1286638766638767</v>
+        <v>-0.04190813390813391</v>
       </c>
       <c r="C28">
-        <v>0.1117566757566758</v>
+        <v>0.02171775371775372</v>
       </c>
       <c r="D28">
-        <v>0.1618093138093138</v>
+        <v>0.1385033825033825</v>
       </c>
       <c r="E28">
-        <v>-0.2347151107151107</v>
+        <v>0.04900935700935701</v>
       </c>
       <c r="F28">
-        <v>0.008738948738948739</v>
+        <v>0.01131797931797932</v>
       </c>
       <c r="G28">
         <v>0.03506233106233106</v>
@@ -3390,19 +3390,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.03948517548517549</v>
+        <v>0.07630436830436831</v>
       </c>
       <c r="C29">
-        <v>-0.02370718770718771</v>
+        <v>-0.03332920532920533</v>
       </c>
       <c r="D29">
-        <v>-0.008839844839844839</v>
+        <v>-0.009076209076209076</v>
       </c>
       <c r="E29">
-        <v>0.01257843657843658</v>
+        <v>-0.02459029259029259</v>
       </c>
       <c r="F29">
-        <v>0.2351747111747112</v>
+        <v>0.2552222912222912</v>
       </c>
       <c r="G29">
         <v>-0.04510796110796111</v>
@@ -3494,19 +3494,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.03394512994512994</v>
+        <v>0.03258330858330858</v>
       </c>
       <c r="C30">
-        <v>-0.01853086253086253</v>
+        <v>-0.01304218904218904</v>
       </c>
       <c r="D30">
-        <v>-0.02831116031116031</v>
+        <v>-0.02352761952761953</v>
       </c>
       <c r="E30">
-        <v>0.02368961968961969</v>
+        <v>0.01866564666564667</v>
       </c>
       <c r="F30">
-        <v>0.01356504156504157</v>
+        <v>0.0131994131994132</v>
       </c>
       <c r="G30">
         <v>0.009766245766245766</v>
@@ -3598,19 +3598,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.006070866070866071</v>
+        <v>0.02546967746967747</v>
       </c>
       <c r="C31">
-        <v>0.02494862494862495</v>
+        <v>0.01122525522525523</v>
       </c>
       <c r="D31">
-        <v>-0.01068140268140268</v>
+        <v>-0.01069142269142269</v>
       </c>
       <c r="E31">
-        <v>-0.03902570702570703</v>
+        <v>0.01916161916161916</v>
       </c>
       <c r="F31">
-        <v>-0.001415989415989416</v>
+        <v>-0.0001058761058761059</v>
       </c>
       <c r="G31">
         <v>-0.008985632985632985</v>
@@ -3702,19 +3702,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.06998916998916999</v>
+        <v>-0.04681631881631881</v>
       </c>
       <c r="C32">
-        <v>0.04598552198552198</v>
+        <v>0.01761233361233361</v>
       </c>
       <c r="D32">
-        <v>0.0699043539043539</v>
+        <v>0.04996888996888997</v>
       </c>
       <c r="E32">
-        <v>-0.07285498885498885</v>
+        <v>0.01788228588228588</v>
       </c>
       <c r="F32">
-        <v>-0.04010585210585211</v>
+        <v>-0.03618076818076818</v>
       </c>
       <c r="G32">
         <v>0.01893771093771094</v>
@@ -3806,19 +3806,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0901010941010941</v>
+        <v>-0.01630999630999631</v>
       </c>
       <c r="C33">
-        <v>-0.2566483006483006</v>
+        <v>-0.2961756321756322</v>
       </c>
       <c r="D33">
-        <v>-0.07418948618948619</v>
+        <v>-0.02952452952452952</v>
       </c>
       <c r="E33">
-        <v>0.1331017571017571</v>
+        <v>-0.1278009318009318</v>
       </c>
       <c r="F33">
-        <v>0.01204448404448404</v>
+        <v>0.009224577224577224</v>
       </c>
       <c r="G33">
         <v>0.0009374649374649374</v>
@@ -3910,19 +3910,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.07122821922821923</v>
+        <v>0.06279007479007478</v>
       </c>
       <c r="C34">
-        <v>-0.2001986241986242</v>
+        <v>-0.2425781785781786</v>
       </c>
       <c r="D34">
-        <v>-0.01805429405429405</v>
+        <v>0.02052987252987253</v>
       </c>
       <c r="E34">
-        <v>0.104979140979141</v>
+        <v>0.05181077181077181</v>
       </c>
       <c r="F34">
-        <v>-0.02907510507510508</v>
+        <v>-0.02673458673458673</v>
       </c>
       <c r="G34">
         <v>-0.01662877662877663</v>
